--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreetingsCardProject\Performer\Template_REF_DataTable\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01224FFD-E07E-4BF3-9AAF-6547D25BC382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFA74F0-361B-4A1B-8728-C54468B1C196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -213,18 +213,9 @@
     <t>emailTemplatePath</t>
   </si>
   <si>
-    <t>HR-GreetingsCardsData\EmailTemplate\</t>
-  </si>
-  <si>
-    <t>HR-GreetingsCardsData\DOB\</t>
-  </si>
-  <si>
     <t>HR-GreetingsCardsData\DOJ\</t>
   </si>
   <si>
-    <t>HR-GreetingsCardsData\DOW\</t>
-  </si>
-  <si>
     <t>DOB_ImageOfBallonLeft</t>
   </si>
   <si>
@@ -240,30 +231,9 @@
     <t>DOB_ImageOfHappyBirthday</t>
   </si>
   <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOB\BallonLeft.png</t>
-  </si>
-  <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOB\BallonRight.png</t>
-  </si>
-  <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOB\HappyBirthday.png</t>
-  </si>
-  <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOB\birthDayFiftFooter.png</t>
-  </si>
-  <si>
     <t>DOB_ImageOfBirthdayGift</t>
   </si>
   <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOB\BirthdayGift.png</t>
-  </si>
-  <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOB\Clouds.png</t>
-  </si>
-  <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOJ\</t>
-  </si>
-  <si>
     <t>HR-GreetingsCardsData\DOJ\logo.png</t>
   </si>
   <si>
@@ -282,15 +252,6 @@
     <t>HR-GreetingsCardsData\DOW\flowerleft.png</t>
   </si>
   <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOW\flowersRight.png</t>
-  </si>
-  <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOW\hands.png</t>
-  </si>
-  <si>
-    <t>Template_REF_DataTable\HR-GreetingsCardsData\DOW\weddinganniversary.png</t>
-  </si>
-  <si>
     <t>DOW_ImageOfFlowerleft</t>
   </si>
   <si>
@@ -301,6 +262,45 @@
   </si>
   <si>
     <t>DOW_ImageOfWeddingAnniversary</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOB\BallonLeft.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOB\BallonRight.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOB\birthDayFiftFooter.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOB\BirthdayGift.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOB\Clouds.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOB\HappyBirthday.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOW\flowersRight.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOW\hands.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOW\weddinganniversary.png</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOB</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOJ</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOW</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\EmailTemplate</t>
   </si>
 </sst>
 </file>
@@ -682,12 +682,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -735,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -747,7 +747,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1762,16 +1762,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="138.5546875" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="138.5703125" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1808,7 +1808,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -2005,7 +2005,7 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -2013,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -2021,92 +2021,92 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -3089,12 +3089,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFA74F0-361B-4A1B-8728-C54468B1C196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B07CAD4-354B-4782-A1C7-379DB44ABDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>HR-GreetingsCardsData\EmailTemplate</t>
+  </si>
+  <si>
+    <t>logFileName</t>
+  </si>
+  <si>
+    <t>HR-ProcessLogs</t>
+  </si>
+  <si>
+    <t>logFilePath</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\HR-ProcessLogs\</t>
   </si>
 </sst>
 </file>
@@ -1762,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2128,8 +2140,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B07CAD4-354B-4782-A1C7-379DB44ABDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5C4CD7-02BA-4DCF-BE31-879C93E178C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1774,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5C4CD7-02BA-4DCF-BE31-879C93E178C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD850D8-0925-4A82-8523-117A3417A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>HR-GreetingsCardsData\HR-ProcessLogs\</t>
+  </si>
+  <si>
+    <t>SupportEmailSubjectOnError</t>
+  </si>
+  <si>
+    <t>SupportEmailSubjectOnSuccess</t>
+  </si>
+  <si>
+    <t>SupportEmailID</t>
+  </si>
+  <si>
+    <t>testsk212@outlook.com</t>
+  </si>
+  <si>
+    <t>empImageFolderPath</t>
+  </si>
+  <si>
+    <t>HR-GreetingsCardsData\DOJ\EmpImage</t>
+  </si>
+  <si>
+    <t>SUCCESS | HR - GreetingCards | Dispatcher Process | GreetingCards Email has been send successfully.</t>
+  </si>
+  <si>
+    <t>Failed | HR - GreetingCards | Performer Process | Found Some Error while sending Greetings Cards Email, Please check.</t>
   </si>
 </sst>
 </file>
@@ -1772,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z989"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2156,10 +2180,38 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
@@ -3101,8 +3153,6 @@
     <row r="985" ht="14.25" customHeight="1"/>
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD850D8-0925-4A82-8523-117A3417A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99CC5A7-58A6-46D3-B760-0B747CC979E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,9 +324,6 @@
     <t>SupportEmailID</t>
   </si>
   <si>
-    <t>testsk212@outlook.com</t>
-  </si>
-  <si>
     <t>empImageFolderPath</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Failed | HR - GreetingCards | Performer Process | Found Some Error while sending Greetings Cards Email, Please check.</t>
+  </si>
+  <si>
+    <t>Testsk444@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1796,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1848,7 +1851,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1859,359 +1862,359 @@
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="5">
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="45">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
@@ -3150,9 +3153,6 @@
     <row r="982" ht="14.25" customHeight="1"/>
     <row r="983" ht="14.25" customHeight="1"/>
     <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99CC5A7-58A6-46D3-B760-0B747CC979E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A6F31F-AA6E-4087-B8C0-A6A51A97CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -315,9 +315,6 @@
     <t>HR-GreetingsCardsData\HR-ProcessLogs\</t>
   </si>
   <si>
-    <t>SupportEmailSubjectOnError</t>
-  </si>
-  <si>
     <t>SupportEmailSubjectOnSuccess</t>
   </si>
   <si>
@@ -330,13 +327,22 @@
     <t>HR-GreetingsCardsData\DOJ\EmpImage</t>
   </si>
   <si>
-    <t>SUCCESS | HR - GreetingCards | Dispatcher Process | GreetingCards Email has been send successfully.</t>
-  </si>
-  <si>
-    <t>Failed | HR - GreetingCards | Performer Process | Found Some Error while sending Greetings Cards Email, Please check.</t>
-  </si>
-  <si>
-    <t>Testsk444@outlook.com</t>
+    <t>SUCCESS | HR - GreetingCards | Performer Process  | All Transaction has been process sucessfully.</t>
+  </si>
+  <si>
+    <t>SupportEmailSubjectOnConfigurationError</t>
+  </si>
+  <si>
+    <t>SupportEmailSubjectOnTransactionError</t>
+  </si>
+  <si>
+    <t>Failed | HR - GreetingCards | Performer Process | Found Some Error while configure the process, Please check.</t>
+  </si>
+  <si>
+    <t>Failed | HR - GreetingCards | Performer Process | Found Some Error while process the transaction, Please check.</t>
+  </si>
+  <si>
+    <t>sakadav@bugraptors.com</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,6 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1799,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z984"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2182,10 +2189,10 @@
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
@@ -2193,12 +2200,12 @@
         <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>100</v>
@@ -2206,13 +2213,20 @@
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3152,7 +3166,6 @@
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
     <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A6F31F-AA6E-4087-B8C0-A6A51A97CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF58860-BF45-4DCA-9635-113A8A6A94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,7 +407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1808,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2191,7 +2190,7 @@
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF58860-BF45-4DCA-9635-113A8A6A94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFC93B9-68D2-40B6-83AA-6C17B25C3192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>sakadav@bugraptors.com</t>
+  </si>
+  <si>
+    <t>imageFormat</t>
+  </si>
+  <si>
+    <t>.PNG,.JPEG,.JPG</t>
   </si>
 </sst>
 </file>
@@ -1807,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2226,7 +2232,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFC93B9-68D2-40B6-83AA-6C17B25C3192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FD069-8766-48D5-B3FF-4971153524F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>.PNG,.JPEG,.JPG</t>
+  </si>
+  <si>
+    <t>ccEmailID</t>
+  </si>
+  <si>
+    <t>sakadav@bugraptors.com,sakadav@bugraptors.com</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,6 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1813,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2196,7 +2203,7 @@
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2240,7 +2247,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FD069-8766-48D5-B3FF-4971153524F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA860CA3-D2E0-4B40-A61E-BD512C18E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,9 +342,6 @@
     <t>Failed | HR - GreetingCards | Performer Process | Found Some Error while process the transaction, Please check.</t>
   </si>
   <si>
-    <t>sakadav@bugraptors.com</t>
-  </si>
-  <si>
     <t>imageFormat</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>sakadav@bugraptors.com,sakadav@bugraptors.com</t>
+  </si>
+  <si>
+    <t>HR@bugraptors.com</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1821,7 @@
   <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2204,7 +2204,7 @@
         <v>97</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
@@ -2241,18 +2241,18 @@
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
         <v>106</v>
-      </c>
-      <c r="B45" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
         <v>108</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA860CA3-D2E0-4B40-A61E-BD512C18E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38175CAC-ECA3-4E20-A2DC-F115E3D1DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>EmpData</t>
   </si>
   <si>
-    <t>Demo_Projects</t>
-  </si>
-  <si>
     <t>DOB_Template.html</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>HR@bugraptors.com</t>
+  </si>
+  <si>
+    <t>HR-Process</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,7 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -798,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -1820,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2025,34 +2024,34 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
@@ -2060,7 +2059,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
@@ -2068,7 +2067,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
@@ -2076,183 +2075,183 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
         <v>92</v>
-      </c>
-      <c r="B38" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
         <v>94</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
         <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
         <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38175CAC-ECA3-4E20-A2DC-F115E3D1DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4903157-4DF5-4D33-85BE-F7993521C27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -348,13 +348,13 @@
     <t>ccEmailID</t>
   </si>
   <si>
-    <t>sakadav@bugraptors.com,sakadav@bugraptors.com</t>
-  </si>
-  <si>
     <t>HR@bugraptors.com</t>
   </si>
   <si>
     <t>HR-Process</t>
+  </si>
+  <si>
+    <t>pgoel@seasiainfotech.com,kashyaptushar@seasiainfotech.com</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,6 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -797,7 +798,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -1817,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z983"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2203,7 +2204,7 @@
         <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
@@ -2250,8 +2251,8 @@
       <c r="A46" t="s">
         <v>106</v>
       </c>
-      <c r="B46" t="s">
-        <v>107</v>
+      <c r="B46" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3190,7 +3191,6 @@
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakadav\Desktop\RPA-HRGreetingCardsProcess\Performer-Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4903157-4DF5-4D33-85BE-F7993521C27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C0365-F3BA-4D49-98CD-A322E2690B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
     <t>HR-Process</t>
   </si>
   <si>
-    <t>pgoel@seasiainfotech.com,kashyaptushar@seasiainfotech.com</t>
+    <t>sakadav@bugraptors.com,sakadav@bugraptors.com</t>
   </si>
 </sst>
 </file>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
